--- a/UGDG/Behavioral_Analysis/ugdg_tsr_means.xlsx
+++ b/UGDG/Behavioral_Analysis/ugdg_tsr_means.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Github\istart\UGDG\Behavioral_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D8B9834-14D8-4A91-863B-5476E7C03C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2BB70B-6165-48C2-A90E-E6CD4299DB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B28FC07-DFBB-4091-9766-FE81E9389E88}"/>
+    <workbookView xWindow="3525" yWindow="2925" windowWidth="21420" windowHeight="8730" xr2:uid="{9B28FC07-DFBB-4091-9766-FE81E9389E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,178 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
-  <si>
-    <t>sub-1002</t>
-  </si>
-  <si>
-    <t>sub-1003</t>
-  </si>
-  <si>
-    <t>sub-1004</t>
-  </si>
-  <si>
-    <t>sub-1006</t>
-  </si>
-  <si>
-    <t>sub-1007</t>
-  </si>
-  <si>
-    <t>sub-1009</t>
-  </si>
-  <si>
-    <t>sub-1010</t>
-  </si>
-  <si>
-    <t>sub-1011</t>
-  </si>
-  <si>
-    <t>sub-1012</t>
-  </si>
-  <si>
-    <t>sub-1013</t>
-  </si>
-  <si>
-    <t>sub-1015</t>
-  </si>
-  <si>
-    <t>sub-1016</t>
-  </si>
-  <si>
-    <t>sub-1019</t>
-  </si>
-  <si>
-    <t>sub-1021</t>
-  </si>
-  <si>
-    <t>sub-1240</t>
-  </si>
-  <si>
-    <t>sub-1242</t>
-  </si>
-  <si>
-    <t>sub-1243</t>
-  </si>
-  <si>
-    <t>sub-1244</t>
-  </si>
-  <si>
-    <t>sub-1245</t>
-  </si>
-  <si>
-    <t>sub-1247</t>
-  </si>
-  <si>
-    <t>sub-1248</t>
-  </si>
-  <si>
-    <t>sub-1249</t>
-  </si>
-  <si>
-    <t>sub-1251</t>
-  </si>
-  <si>
-    <t>sub-1253</t>
-  </si>
-  <si>
-    <t>sub-1255</t>
-  </si>
-  <si>
-    <t>sub-1276</t>
-  </si>
-  <si>
-    <t>sub-1282</t>
-  </si>
-  <si>
-    <t>sub-1286</t>
-  </si>
-  <si>
-    <t>sub-1294</t>
-  </si>
-  <si>
-    <t>sub-1300</t>
-  </si>
-  <si>
-    <t>sub-1301</t>
-  </si>
-  <si>
-    <t>sub-1302</t>
-  </si>
-  <si>
-    <t>sub-1303</t>
-  </si>
-  <si>
-    <t>sub-2048</t>
-  </si>
-  <si>
-    <t>sub-3101</t>
-  </si>
-  <si>
-    <t>sub-3116</t>
-  </si>
-  <si>
-    <t>sub-3122</t>
-  </si>
-  <si>
-    <t>sub-3125</t>
-  </si>
-  <si>
-    <t>sub-3140</t>
-  </si>
-  <si>
-    <t>sub-3143</t>
-  </si>
-  <si>
-    <t>sub-3152</t>
-  </si>
-  <si>
-    <t>sub-3164</t>
-  </si>
-  <si>
-    <t>sub-3166</t>
-  </si>
-  <si>
-    <t>sub-3170</t>
-  </si>
-  <si>
-    <t>sub-3173</t>
-  </si>
-  <si>
-    <t>sub-3175</t>
-  </si>
-  <si>
-    <t>sub-3176</t>
-  </si>
-  <si>
-    <t>sub-3186</t>
-  </si>
-  <si>
-    <t>sub-3189</t>
-  </si>
-  <si>
-    <t>sub-3190</t>
-  </si>
-  <si>
-    <t>sub-3199</t>
-  </si>
-  <si>
-    <t>sub-3200</t>
-  </si>
-  <si>
-    <t>sub-3206</t>
-  </si>
-  <si>
-    <t>sub-3210</t>
-  </si>
-  <si>
-    <t>sub-3212</t>
-  </si>
-  <si>
-    <t>sub-3218</t>
-  </si>
-  <si>
-    <t>sub-3223</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Sub</t>
   </si>
@@ -567,26 +396,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A67F396-F6BC-4198-87E3-5CFFFEFC96A3}">
   <dimension ref="C2:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>0</v>
+      <c r="C3">
+        <v>1002</v>
       </c>
       <c r="D3">
         <v>0.26365774055225899</v>
@@ -596,8 +425,8 @@
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>1</v>
+      <c r="C4">
+        <v>1003</v>
       </c>
       <c r="D4">
         <v>-1.14365155206238</v>
@@ -607,8 +436,8 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>2</v>
+      <c r="C5">
+        <v>1004</v>
       </c>
       <c r="D5">
         <v>-2.52013103263121E-2</v>
@@ -618,8 +447,8 @@
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>3</v>
+      <c r="C6">
+        <v>1006</v>
       </c>
       <c r="D6">
         <v>-1.4204513160849599</v>
@@ -629,8 +458,8 @@
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>4</v>
+      <c r="C7">
+        <v>1007</v>
       </c>
       <c r="D7">
         <v>0.39978436891096503</v>
@@ -640,8 +469,8 @@
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>5</v>
+      <c r="C8">
+        <v>1009</v>
       </c>
       <c r="D8">
         <v>1.0151734942311399</v>
@@ -651,8 +480,8 @@
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>6</v>
+      <c r="C9">
+        <v>1010</v>
       </c>
       <c r="D9">
         <v>-1.9605118496946601</v>
@@ -662,8 +491,8 @@
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>7</v>
+      <c r="C10">
+        <v>1011</v>
       </c>
       <c r="D10">
         <v>-1.2546958625664599</v>
@@ -673,8 +502,8 @@
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>8</v>
+      <c r="C11">
+        <v>1012</v>
       </c>
       <c r="D11">
         <v>1.6875377656200901</v>
@@ -684,8 +513,8 @@
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>9</v>
+      <c r="C12">
+        <v>1013</v>
       </c>
       <c r="D12">
         <v>2.0956286180187198</v>
@@ -695,8 +524,8 @@
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>10</v>
+      <c r="C13">
+        <v>1015</v>
       </c>
       <c r="D13">
         <v>0.94073839386836799</v>
@@ -706,8 +535,8 @@
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>11</v>
+      <c r="C14">
+        <v>1016</v>
       </c>
       <c r="D14">
         <v>1.05309577180479</v>
@@ -717,8 +546,8 @@
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>12</v>
+      <c r="C15">
+        <v>1019</v>
       </c>
       <c r="D15">
         <v>-0.397911018015488</v>
@@ -728,8 +557,8 @@
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>13</v>
+      <c r="C16">
+        <v>1021</v>
       </c>
       <c r="D16">
         <v>-0.23419004921210401</v>
@@ -739,8 +568,8 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>14</v>
+      <c r="C17">
+        <v>1240</v>
       </c>
       <c r="D17">
         <v>0.17354915107487401</v>
@@ -750,8 +579,8 @@
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>15</v>
+      <c r="C18">
+        <v>1242</v>
       </c>
       <c r="D18">
         <v>0.60657030100760401</v>
@@ -761,8 +590,8 @@
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>16</v>
+      <c r="C19">
+        <v>1243</v>
       </c>
       <c r="D19">
         <v>3.5793061344444998E-3</v>
@@ -772,8 +601,8 @@
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20">
+        <v>1244</v>
       </c>
       <c r="D20">
         <v>0.29114134665200597</v>
@@ -783,8 +612,8 @@
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>18</v>
+      <c r="C21">
+        <v>1245</v>
       </c>
       <c r="D21">
         <v>0.50524144746452104</v>
@@ -794,8 +623,8 @@
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>19</v>
+      <c r="C22">
+        <v>1247</v>
       </c>
       <c r="D22">
         <v>-0.18365513081575</v>
@@ -805,8 +634,8 @@
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>20</v>
+      <c r="C23">
+        <v>1248</v>
       </c>
       <c r="D23">
         <v>1.18777930683998</v>
@@ -816,8 +645,8 @@
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>21</v>
+      <c r="C24">
+        <v>1249</v>
       </c>
       <c r="D24">
         <v>0.95581622208450701</v>
@@ -827,8 +656,8 @@
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>22</v>
+      <c r="C25">
+        <v>1251</v>
       </c>
       <c r="D25">
         <v>0.86443317431046895</v>
@@ -838,8 +667,8 @@
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>23</v>
+      <c r="C26">
+        <v>1253</v>
       </c>
       <c r="D26">
         <v>0.44575272625774898</v>
@@ -849,8 +678,8 @@
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>24</v>
+      <c r="C27">
+        <v>1255</v>
       </c>
       <c r="D27">
         <v>0.36626356478775002</v>
@@ -860,8 +689,8 @@
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>25</v>
+      <c r="C28">
+        <v>1276</v>
       </c>
       <c r="D28">
         <v>1.70975405076501</v>
@@ -871,8 +700,8 @@
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>26</v>
+      <c r="C29">
+        <v>1282</v>
       </c>
       <c r="D29">
         <v>0.62405768364880998</v>
@@ -882,8 +711,8 @@
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>27</v>
+      <c r="C30">
+        <v>1286</v>
       </c>
       <c r="D30">
         <v>0.66776785999607102</v>
@@ -893,8 +722,8 @@
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>28</v>
+      <c r="C31">
+        <v>1294</v>
       </c>
       <c r="D31">
         <v>0.39924175340093798</v>
@@ -904,8 +733,8 @@
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>29</v>
+      <c r="C32">
+        <v>1300</v>
       </c>
       <c r="D32">
         <v>-0.69966385027549305</v>
@@ -915,8 +744,8 @@
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>30</v>
+      <c r="C33">
+        <v>1301</v>
       </c>
       <c r="D33">
         <v>0.82365091983118699</v>
@@ -926,8 +755,8 @@
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>31</v>
+      <c r="C34">
+        <v>1302</v>
       </c>
       <c r="D34">
         <v>0.603480730578554</v>
@@ -937,8 +766,8 @@
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>32</v>
+      <c r="C35">
+        <v>1303</v>
       </c>
       <c r="D35">
         <v>-0.22011193249953501</v>
@@ -948,8 +777,8 @@
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>33</v>
+      <c r="C36">
+        <v>2048</v>
       </c>
       <c r="D36">
         <v>2.332185093193E-2</v>
@@ -959,8 +788,8 @@
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>34</v>
+      <c r="C37">
+        <v>3101</v>
       </c>
       <c r="D37">
         <v>-0.145115336974599</v>
@@ -970,8 +799,8 @@
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>35</v>
+      <c r="C38">
+        <v>3116</v>
       </c>
       <c r="D38">
         <v>0.76593960727409205</v>
@@ -981,8 +810,8 @@
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>36</v>
+      <c r="C39">
+        <v>3122</v>
       </c>
       <c r="D39">
         <v>0.78813560910268698</v>
@@ -992,8 +821,8 @@
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>37</v>
+      <c r="C40">
+        <v>3125</v>
       </c>
       <c r="D40">
         <v>-1.14121948569198</v>
@@ -1003,8 +832,8 @@
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>38</v>
+      <c r="C41">
+        <v>3140</v>
       </c>
       <c r="D41">
         <v>-1.4348703464524899</v>
@@ -1014,8 +843,8 @@
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>39</v>
+      <c r="C42">
+        <v>3143</v>
       </c>
       <c r="D42">
         <v>-8.81157364751122E-2</v>
@@ -1025,8 +854,8 @@
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>40</v>
+      <c r="C43">
+        <v>3152</v>
       </c>
       <c r="D43">
         <v>-1.6519689219815299</v>
@@ -1036,8 +865,8 @@
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>41</v>
+      <c r="C44">
+        <v>3164</v>
       </c>
       <c r="D44">
         <v>-1.5896438520162699</v>
@@ -1047,8 +876,8 @@
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>42</v>
+      <c r="C45">
+        <v>3166</v>
       </c>
       <c r="D45">
         <v>0.40859740737352701</v>
@@ -1058,8 +887,8 @@
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>43</v>
+      <c r="C46">
+        <v>3170</v>
       </c>
       <c r="D46">
         <v>1.1322327636471501</v>
@@ -1069,8 +898,8 @@
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>44</v>
+      <c r="C47">
+        <v>3173</v>
       </c>
       <c r="D47">
         <v>0.17223957687542499</v>
@@ -1080,8 +909,8 @@
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>45</v>
+      <c r="C48">
+        <v>3175</v>
       </c>
       <c r="D48">
         <v>-0.77900836602775003</v>
@@ -1091,8 +920,8 @@
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>46</v>
+      <c r="C49">
+        <v>3176</v>
       </c>
       <c r="D49">
         <v>-0.16713705561400899</v>
@@ -1102,8 +931,8 @@
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>47</v>
+      <c r="C50">
+        <v>3186</v>
       </c>
       <c r="D50">
         <v>-1.70112973303435</v>
@@ -1113,8 +942,8 @@
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>48</v>
+      <c r="C51">
+        <v>3189</v>
       </c>
       <c r="D51">
         <v>0.59838850366243901</v>
@@ -1124,8 +953,8 @@
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>49</v>
+      <c r="C52">
+        <v>3190</v>
       </c>
       <c r="D52">
         <v>0.50910159921857601</v>
@@ -1135,8 +964,8 @@
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>50</v>
+      <c r="C53">
+        <v>3199</v>
       </c>
       <c r="D53">
         <v>-1.0983897334138</v>
@@ -1146,8 +975,8 @@
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>51</v>
+      <c r="C54">
+        <v>3200</v>
       </c>
       <c r="D54">
         <v>0.74884139665342897</v>
@@ -1157,8 +986,8 @@
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>52</v>
+      <c r="C55">
+        <v>3206</v>
       </c>
       <c r="D55">
         <v>-1.3874631652890601</v>
@@ -1168,8 +997,8 @@
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>53</v>
+      <c r="C56">
+        <v>3210</v>
       </c>
       <c r="D56">
         <v>-1.8417829443328</v>
@@ -1179,8 +1008,8 @@
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>54</v>
+      <c r="C57">
+        <v>3212</v>
       </c>
       <c r="D57">
         <v>0.46293606825790601</v>
@@ -1190,8 +1019,8 @@
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>55</v>
+      <c r="C58">
+        <v>3218</v>
       </c>
       <c r="D58">
         <v>-0.53398214278482903</v>
@@ -1201,8 +1030,8 @@
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>56</v>
+      <c r="C59">
+        <v>3223</v>
       </c>
       <c r="D59">
         <v>-2.19355938919621</v>
